--- a/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,168 +46,171 @@
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>poorly</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>ok</t>
   </si>
   <si>
     <t>paid</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
     <t>interest</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>look</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
@@ -229,21 +235,12 @@
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>helicopter</t>
+    <t>elf</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>elf</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -263,6 +260,12 @@
   </si>
   <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>0.6461538461538462</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4">
-        <v>0.5555555555555556</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9428571428571428</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5">
-        <v>0.4545454545454545</v>
+        <v>0.421875</v>
       </c>
       <c r="L5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9174757281553398</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C6">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.4150943396226415</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9032258064516129</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="C7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>0.4086021505376344</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8913043478260869</v>
+        <v>0.9223300970873787</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>0.375</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8873239436619719</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>0.3191489361702128</v>
+        <v>0.265625</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8548387096774194</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>0.3035714285714285</v>
+        <v>0.2510373443983402</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8526315789473684</v>
+        <v>0.8842105263157894</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>0.2946058091286307</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L11">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="M11">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>340</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8409090909090909</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="C12">
         <v>37</v>
@@ -1160,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.28125</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>46</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7631578947368421</v>
+        <v>0.765625</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>0.2453371592539455</v>
+        <v>0.1565573770491803</v>
       </c>
       <c r="L13">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M13">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>526</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7578125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C14">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>0.2110091743119266</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L14">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>258</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.734375</v>
+        <v>0.71875</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,31 +1313,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>0.1493027071369975</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L15">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1037</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6984126984126984</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>0.1265060240963855</v>
+        <v>0.07592472420506165</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>145</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6851851851851852</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,31 +1413,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>0.08635097493036212</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>328</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1445,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1460,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>0.07722258273848151</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L18">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1422</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1510,31 +1513,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>0.05346187554776512</v>
+        <v>0.02</v>
       </c>
       <c r="L19">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1080</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1542,13 +1545,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6557377049180327</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1560,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1594,13 +1597,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5925925925925926</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1623,10 +1626,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1638,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1646,13 +1649,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5714285714285714</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1664,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1672,13 +1675,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5555555555555556</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1690,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1698,13 +1701,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1716,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1724,13 +1727,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5238095238095238</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1742,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1750,13 +1753,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5023696682464455</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C28">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1768,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1776,13 +1779,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4761904761904762</v>
+        <v>0.475</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1794,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1802,13 +1805,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.462962962962963</v>
+        <v>0.4407582938388626</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1820,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1828,13 +1831,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4310344827586207</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1846,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1880,13 +1883,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4107142857142857</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1898,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1906,13 +1909,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3902439024390244</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1924,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1932,13 +1935,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3681159420289855</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C35">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1950,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>218</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1958,13 +1961,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3608247422680412</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1976,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1984,13 +1987,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3425925925925926</v>
+        <v>0.3420289855072464</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2002,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>71</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2010,13 +2013,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3118811881188119</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C38">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2028,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2036,13 +2039,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2721518987341772</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="C39">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2054,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>230</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2062,13 +2065,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.265625</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2080,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>47</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2088,13 +2091,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2432432432432433</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2106,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2114,13 +2117,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.23</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="C42">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2132,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>154</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2140,13 +2143,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2289156626506024</v>
+        <v>0.2689873417721519</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2158,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>64</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2166,13 +2169,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1978021978021978</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2184,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2192,13 +2195,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1932773109243698</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2218,13 +2221,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.177536231884058</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2236,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>227</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2244,13 +2247,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.15625</v>
+        <v>0.19</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2262,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>108</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2270,13 +2273,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1367521367521368</v>
+        <v>0.1557971014492754</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2288,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2296,25 +2299,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1352941176470588</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E49">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>147</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2322,13 +2325,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1234177215189873</v>
+        <v>0.152046783625731</v>
       </c>
       <c r="C50">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2340,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>277</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2348,13 +2351,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1142857142857143</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2366,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2374,13 +2377,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1013215859030837</v>
+        <v>0.125</v>
       </c>
       <c r="C52">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2392,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>408</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2400,25 +2403,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09361069836552749</v>
+        <v>0.09940652818991098</v>
       </c>
       <c r="C53">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D53">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E53">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2426,13 +2429,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.08196721311475409</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2444,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2452,13 +2455,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06624605678233439</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="C55">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2470,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>296</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2478,13 +2481,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.04310344827586207</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2496,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>333</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2504,7 +2507,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03782894736842105</v>
+        <v>0.07255520504731862</v>
       </c>
       <c r="C57">
         <v>23</v>
@@ -2522,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>585</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2530,25 +2533,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03464203233256351</v>
+        <v>0.04398148148148148</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F58">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2556,13 +2559,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.03053435114503817</v>
+        <v>0.04383561643835616</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2574,7 +2577,33 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>635</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.03358778625954199</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
